--- a/IDEA/Wbtv/afbakening wet en regelgeving.xlsx
+++ b/IDEA/Wbtv/afbakening wet en regelgeving.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Bron</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Geheel</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1728" activePane="bottomLeft"/>
       <selection sqref="A1:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,8 +501,14 @@
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
       <c r="F3" s="2">
         <v>43</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -509,8 +518,14 @@
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
       <c r="F4" s="2">
         <v>524</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -520,8 +535,14 @@
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
       <c r="F5" s="2">
         <v>21</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -531,8 +552,14 @@
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
       <c r="F6" s="2">
         <v>8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -542,8 +569,14 @@
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
       <c r="F7" s="2">
         <v>22</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -553,8 +586,14 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
       <c r="F8" s="2">
         <v>17</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -615,7 +654,7 @@
     <hyperlink ref="A12" r:id="rId10" display="http://www.bureaubtv.nl/pdf/Besluit_aanwijzen_specialisatie.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1800" verticalDpi="1800" r:id="rId11"/>
 </worksheet>
 </file>
 
